--- a/Sales Order (sale.order).xlsx
+++ b/Sales Order (sale.order).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="235">
   <si>
     <t>Order Reference</t>
   </si>
@@ -37,16 +37,142 @@
     <t>Status</t>
   </si>
   <si>
+    <t>S00146</t>
+  </si>
+  <si>
+    <t>Lê Huỳnh Như</t>
+  </si>
+  <si>
+    <t>Lương Thảo Nhi</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>S00145</t>
+  </si>
+  <si>
+    <t>Tiểu Vy</t>
+  </si>
+  <si>
+    <t>S00144</t>
+  </si>
+  <si>
+    <t>Thanh Thuỷ</t>
+  </si>
+  <si>
+    <t>S00143</t>
+  </si>
+  <si>
+    <t>Trần Anh Thơ</t>
+  </si>
+  <si>
+    <t>S00142</t>
+  </si>
+  <si>
+    <t>Jun Ali</t>
+  </si>
+  <si>
+    <t>S00141</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Chương</t>
+  </si>
+  <si>
+    <t>Yến Ngọc</t>
+  </si>
+  <si>
+    <t>S00140</t>
+  </si>
+  <si>
+    <t>Ely</t>
+  </si>
+  <si>
+    <t>S00139</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>S00138</t>
+  </si>
+  <si>
+    <t>NyTran</t>
+  </si>
+  <si>
+    <t>S00137</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>S00136</t>
+  </si>
+  <si>
+    <t>Phạm Quỳnh Trang</t>
+  </si>
+  <si>
+    <t>Nguyên Sa</t>
+  </si>
+  <si>
+    <t>S00135</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Khôi</t>
+  </si>
+  <si>
+    <t>S00134</t>
+  </si>
+  <si>
+    <t>Lê Anh Tuấn</t>
+  </si>
+  <si>
+    <t>S00133</t>
+  </si>
+  <si>
+    <t>Trần Thanh Huyền</t>
+  </si>
+  <si>
+    <t>S00132</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Tùng</t>
+  </si>
+  <si>
+    <t>S00131</t>
+  </si>
+  <si>
+    <t>S00130</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Ánh</t>
+  </si>
+  <si>
+    <t>S00129</t>
+  </si>
+  <si>
+    <t>S00128</t>
+  </si>
+  <si>
+    <t>S00127</t>
+  </si>
+  <si>
+    <t>S00126</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
     <t>S00125</t>
   </si>
   <si>
     <t>novaha</t>
   </si>
   <si>
-    <t>Yến Ngọc</t>
-  </si>
-  <si>
-    <t>Sales Order</t>
+    <t>S00124</t>
+  </si>
+  <si>
+    <t>nguyen</t>
   </si>
   <si>
     <t>S00123</t>
@@ -61,40 +187,538 @@
     <t>Thảo Nguyên</t>
   </si>
   <si>
+    <t>S00121</t>
+  </si>
+  <si>
+    <t>Lâm Thành Đạt</t>
+  </si>
+  <si>
+    <t>S00120</t>
+  </si>
+  <si>
+    <t>S00119</t>
+  </si>
+  <si>
+    <t>S00118</t>
+  </si>
+  <si>
+    <t>S00117</t>
+  </si>
+  <si>
+    <t>Phan Nhật Long</t>
+  </si>
+  <si>
+    <t>S00116</t>
+  </si>
+  <si>
+    <t>Lâm Minh Quốc</t>
+  </si>
+  <si>
+    <t>S00115</t>
+  </si>
+  <si>
+    <t>Lyly</t>
+  </si>
+  <si>
+    <t>S00114</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>S00113</t>
+  </si>
+  <si>
+    <t>S00112</t>
+  </si>
+  <si>
+    <t>S00111</t>
+  </si>
+  <si>
+    <t>S00110</t>
+  </si>
+  <si>
+    <t>S00109</t>
+  </si>
+  <si>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>S00107</t>
+  </si>
+  <si>
+    <t>S00108</t>
+  </si>
+  <si>
+    <t>S00106</t>
+  </si>
+  <si>
+    <t>S00105</t>
+  </si>
+  <si>
+    <t>S00104</t>
+  </si>
+  <si>
+    <t>S00103</t>
+  </si>
+  <si>
+    <t>S00102</t>
+  </si>
+  <si>
+    <t>S00101</t>
+  </si>
+  <si>
+    <t>S00100</t>
+  </si>
+  <si>
+    <t>Yến Nhi Trần</t>
+  </si>
+  <si>
+    <t>S00099</t>
+  </si>
+  <si>
+    <t>Nhật Vy</t>
+  </si>
+  <si>
+    <t>S00098</t>
+  </si>
+  <si>
+    <t>S00097</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>S00096</t>
+  </si>
+  <si>
+    <t>Hữu Đăng</t>
+  </si>
+  <si>
+    <t>S00095</t>
+  </si>
+  <si>
+    <t>S00094</t>
+  </si>
+  <si>
+    <t>S00093</t>
+  </si>
+  <si>
+    <t>Hữu Huy</t>
+  </si>
+  <si>
+    <t>S00092</t>
+  </si>
+  <si>
+    <t>Linh chi</t>
+  </si>
+  <si>
+    <t>S00091</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đạt</t>
+  </si>
+  <si>
+    <t>S00090</t>
+  </si>
+  <si>
+    <t>Trương Văn Lộc</t>
+  </si>
+  <si>
+    <t>S00089</t>
+  </si>
+  <si>
+    <t>S00088</t>
+  </si>
+  <si>
     <t>S00087</t>
   </si>
   <si>
     <t>Trần Bích Thủy</t>
   </si>
   <si>
+    <t>S00084</t>
+  </si>
+  <si>
+    <t>Tuấn Anh</t>
+  </si>
+  <si>
+    <t>S00086</t>
+  </si>
+  <si>
+    <t>Truc Chi</t>
+  </si>
+  <si>
+    <t>S00085</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Huân</t>
+  </si>
+  <si>
+    <t>S00083</t>
+  </si>
+  <si>
+    <t>Ngọc Yến</t>
+  </si>
+  <si>
+    <t>S00082</t>
+  </si>
+  <si>
+    <t>S00081</t>
+  </si>
+  <si>
+    <t>Võ Đức Huy</t>
+  </si>
+  <si>
+    <t>S00080</t>
+  </si>
+  <si>
+    <t>Aloha</t>
+  </si>
+  <si>
+    <t>S00078</t>
+  </si>
+  <si>
+    <t>S00077</t>
+  </si>
+  <si>
+    <t>S00076</t>
+  </si>
+  <si>
+    <t>Hanh Nguyen</t>
+  </si>
+  <si>
+    <t>S00075</t>
+  </si>
+  <si>
+    <t>Public user</t>
+  </si>
+  <si>
+    <t>S00074</t>
+  </si>
+  <si>
+    <t>Thắm</t>
+  </si>
+  <si>
+    <t>S00073</t>
+  </si>
+  <si>
+    <t>Phạm Thị Yến Ngọc</t>
+  </si>
+  <si>
     <t>S00072</t>
   </si>
   <si>
     <t>Hương Giang</t>
   </si>
   <si>
+    <t>S00071</t>
+  </si>
+  <si>
+    <t>Kim Giàu</t>
+  </si>
+  <si>
+    <t>S00070</t>
+  </si>
+  <si>
+    <t>Ngọc Giàu</t>
+  </si>
+  <si>
+    <t>S00069</t>
+  </si>
+  <si>
+    <t>Thanh Uyên Tran</t>
+  </si>
+  <si>
+    <t>S00068</t>
+  </si>
+  <si>
+    <t>S00067</t>
+  </si>
+  <si>
+    <t>Hồng Anh Nguyễn</t>
+  </si>
+  <si>
+    <t>S00066</t>
+  </si>
+  <si>
+    <t>Đàm Nhi “wine”</t>
+  </si>
+  <si>
+    <t>S00065</t>
+  </si>
+  <si>
+    <t>S00064</t>
+  </si>
+  <si>
+    <t>Thuý Ngân</t>
+  </si>
+  <si>
+    <t>S00063</t>
+  </si>
+  <si>
+    <t>Mỹ Hạnh</t>
+  </si>
+  <si>
+    <t>S00062</t>
+  </si>
+  <si>
+    <t>Bích Trâm</t>
+  </si>
+  <si>
+    <t>S00061</t>
+  </si>
+  <si>
+    <t>S00060</t>
+  </si>
+  <si>
+    <t>Đinh Thị Kim Yến</t>
+  </si>
+  <si>
+    <t>S00059</t>
+  </si>
+  <si>
+    <t>S00058</t>
+  </si>
+  <si>
+    <t>S00057</t>
+  </si>
+  <si>
+    <t>S00056</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Khang</t>
+  </si>
+  <si>
+    <t>S00055</t>
+  </si>
+  <si>
+    <t>S00054</t>
+  </si>
+  <si>
+    <t>S00053</t>
+  </si>
+  <si>
+    <t>S00052</t>
+  </si>
+  <si>
+    <t>S00051</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mỹ Dung</t>
+  </si>
+  <si>
+    <t>S00050</t>
+  </si>
+  <si>
+    <t>S00024</t>
+  </si>
+  <si>
+    <t>S00049</t>
+  </si>
+  <si>
+    <t>S00048</t>
+  </si>
+  <si>
+    <t>S00047</t>
+  </si>
+  <si>
+    <t>S00046</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>S00045</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>S00044</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>S00043</t>
+  </si>
+  <si>
+    <t>Nguyễn Trí Thứ</t>
+  </si>
+  <si>
+    <t>S00042</t>
+  </si>
+  <si>
+    <t>Trần Thu</t>
+  </si>
+  <si>
+    <t>S00041</t>
+  </si>
+  <si>
+    <t>S00040</t>
+  </si>
+  <si>
+    <t>S00039</t>
+  </si>
+  <si>
+    <t>Hồng Sơn</t>
+  </si>
+  <si>
     <t>S00038</t>
   </si>
   <si>
     <t>Mỹ Tâm</t>
   </si>
   <si>
+    <t>S00037</t>
+  </si>
+  <si>
+    <t>Long Nhật</t>
+  </si>
+  <si>
+    <t>S00036</t>
+  </si>
+  <si>
+    <t>Phan Như Quỳnh</t>
+  </si>
+  <si>
+    <t>S00035</t>
+  </si>
+  <si>
+    <t>Bảo Ngọc Nguyễn</t>
+  </si>
+  <si>
+    <t>S00034</t>
+  </si>
+  <si>
+    <t>Yến Vy</t>
+  </si>
+  <si>
     <t>S00031</t>
   </si>
   <si>
     <t>11, noc noc</t>
   </si>
   <si>
+    <t>S00025</t>
+  </si>
+  <si>
+    <t>S00033</t>
+  </si>
+  <si>
+    <t>Thanh My</t>
+  </si>
+  <si>
+    <t>S00030</t>
+  </si>
+  <si>
+    <t>Tuệ Anh</t>
+  </si>
+  <si>
+    <t>S00029</t>
+  </si>
+  <si>
+    <t>Lan Thảo</t>
+  </si>
+  <si>
+    <t>S00028</t>
+  </si>
+  <si>
+    <t>S00027</t>
+  </si>
+  <si>
+    <t>S00026</t>
+  </si>
+  <si>
+    <t>Đoàn Thảo Vân</t>
+  </si>
+  <si>
+    <t>S00023</t>
+  </si>
+  <si>
+    <t>S00022</t>
+  </si>
+  <si>
     <t>S00021</t>
   </si>
   <si>
-    <t>Nguyễn Văn Đạt</t>
+    <t>S00020</t>
+  </si>
+  <si>
+    <t>S00019</t>
+  </si>
+  <si>
+    <t>S00018</t>
+  </si>
+  <si>
+    <t>S00017</t>
+  </si>
+  <si>
+    <t>S00016</t>
+  </si>
+  <si>
+    <t>Trần Bảo Anh</t>
   </si>
   <si>
     <t>S00014</t>
   </si>
   <si>
     <t>Lý Kim Ngân</t>
+  </si>
+  <si>
+    <t>S00013</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Khoa</t>
+  </si>
+  <si>
+    <t>S00011</t>
+  </si>
+  <si>
+    <t>S00010</t>
+  </si>
+  <si>
+    <t>Tran Minh Ngoc</t>
+  </si>
+  <si>
+    <t>S00009</t>
+  </si>
+  <si>
+    <t>Nguyen Thoai Anh</t>
+  </si>
+  <si>
+    <t>S00008</t>
+  </si>
+  <si>
+    <t>Thanh Trúc</t>
+  </si>
+  <si>
+    <t>S00003</t>
+  </si>
+  <si>
+    <t>Chiêm Đức Luân</t>
+  </si>
+  <si>
+    <t>S00002</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo Ngọc</t>
+  </si>
+  <si>
+    <t>S00007</t>
+  </si>
+  <si>
+    <t>Thanh Tuyền</t>
+  </si>
+  <si>
+    <t>S00005</t>
+  </si>
+  <si>
+    <t>Thanh Uyên</t>
+  </si>
+  <si>
+    <t>S00004</t>
   </si>
 </sst>
 </file>
@@ -448,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>46002.46722222222</v>
+        <v>46004.39358796296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -495,7 +1119,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4">
-        <v>203225000</v>
+        <v>107690000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -506,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>46002.44488425926</v>
+        <v>46004.39197916666</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -516,7 +1140,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4">
-        <v>3491400</v>
+        <v>674300000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -527,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>46002.44341435185</v>
+        <v>46004.39108796296</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -537,7 +1161,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
-        <v>9735000</v>
+        <v>250250000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -548,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3">
-        <v>45993.84010416667</v>
+        <v>46004.38792824074</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -558,7 +1182,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
-        <v>9460000</v>
+        <v>483406000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -569,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>45992.33909722222</v>
+        <v>46004.38706018519</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -579,7 +1203,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
-        <v>24205500</v>
+        <v>400345000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -590,17 +1214,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>45987.57344907407</v>
+        <v>46004.38489583333</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
-        <v>29425000</v>
+        <v>97790000</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -608,20 +1232,18 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>45985.4409375</v>
+        <v>46003.89363425926</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
-        <v>19058900</v>
+        <v>211530000</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -629,20 +1251,18 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>45950.41158564815</v>
+        <v>46003.88758101852</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
-        <v>4628800</v>
+        <v>176957000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -650,22 +1270,2725 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
-        <v>45948.91013888889</v>
+        <v>46003.88638888889</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4">
+        <v>96074000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>46003.88473379629</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4">
+        <v>82005000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
+        <v>46003.8481712963</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <v>20394000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
+        <v>46003.84733796296</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <v>16871800</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>46003.84637731482</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
+        <v>16915800</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <v>46003.84443287037</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
+        <v>13043800</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3">
+        <v>46003.84363425926</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4">
+        <v>17600000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>46003.84296296296</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4">
+        <v>11557700</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3">
+        <v>46003.84231481481</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
+        <v>17879400</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>46002.96306712963</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
+        <v>10723900</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3">
+        <v>46002.96091435185</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
+        <v>8580000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>46002.96028935185</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4">
+        <v>8707600</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3">
+        <v>46002.95946759259</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4">
+        <v>4782800</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3">
+        <v>46002.46722222222</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4">
+        <v>203225000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>46002.4471875</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4">
+        <v>7425000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3">
+        <v>46002.44488425926</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4">
+        <v>3491400</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3">
+        <v>46002.44341435185</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4">
+        <v>9735000</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3">
+        <v>46002.44074074074</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4">
+        <v>306625000</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3">
+        <v>46002.42225694445</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4">
+        <v>433631000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3">
+        <v>46002.42021990741</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4">
+        <v>362120000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3">
+        <v>46001.9943287037</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4">
+        <v>28479000</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3">
+        <v>46001.99400462963</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4">
+        <v>89100000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>46001.99158564815</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4">
+        <v>17932200</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3">
+        <v>46001.90332175926</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4">
+        <v>7031200</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3">
+        <v>46001.8984375</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4">
+        <v>4331800</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3">
+        <v>46000.81677083333</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4">
+        <v>56540000</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3">
+        <v>46000.81628472222</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4">
+        <v>86790000</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3">
+        <v>46000.81596064815</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4">
+        <v>33715000</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3">
+        <v>46000.63741898148</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4">
+        <v>9205900</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3">
+        <v>46000.49523148148</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4">
+        <v>28105000</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45999.02637731482</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4">
+        <v>9623900</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45999.08660879629</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4">
+        <v>6068701</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45998.87765046296</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4">
+        <v>51040000</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45998.87585648148</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4">
+        <v>50325000</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45998.8752662037</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4">
+        <v>79640000</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45997.96930555555</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4">
+        <v>55557700</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45997.96890046296</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4">
+        <v>39930000</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45997.96822916667</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4">
+        <v>74569000</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45997.53710648148</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4">
+        <v>8734000</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45997.5269675926</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4">
+        <v>2231900</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45997.52292824074</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4">
+        <v>3080000</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45996.89208333333</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4">
+        <v>13286900</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45995.8862962963</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4">
+        <v>2189000</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45995.88490740741</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4">
+        <v>3932500</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45995.88302083333</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4">
+        <v>27231600</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45994.90324074074</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4">
+        <v>3190000</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45994.90099537037</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4">
+        <v>15673900</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45993.92877314815</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4">
+        <v>7590000</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45993.92829861111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4">
+        <v>7634000</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45993.92748842593</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4">
+        <v>18854000</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45993.84163194444</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4">
+        <v>581900</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45993.84010416667</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4">
+        <v>9460000</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45993.83478009259</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4">
+        <v>20293900</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45993.83646990741</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4">
+        <v>14465000</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45993.83631944445</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4">
+        <v>21219000</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45992.45292824074</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4">
+        <v>90145000</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45992.44917824074</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4">
+        <v>46549800</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45992.42822916667</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4">
+        <v>9018900</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45992.39917824074</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4">
+        <v>18700000</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45992.38005787037</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4">
+        <v>13473900</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45992.379375</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4">
+        <v>5948800</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45992.35972222222</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4">
+        <v>74115000</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45992.35901620371</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4">
+        <v>28737500</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45992.35271990741</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4">
+        <v>85489000</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45992.35101851852</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4">
+        <v>8107000</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45992.33909722222</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4">
+        <v>24205500</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45992.33822916666</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4">
+        <v>495000000</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45992.33652777778</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4">
+        <v>233722500</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45991.84334490741</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4">
+        <v>2145000</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45991.84023148148</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4">
+        <v>21285000</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45991.83908564815</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4">
+        <v>5775000</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45991.17501157407</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4">
+        <v>21593000</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45991.17149305555</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4">
+        <v>8910000</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45991.16793981481</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4">
+        <v>9832900</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45991.16701388889</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4">
+        <v>7139000</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45991.16601851852</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="4">
+        <v>10041900</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45990.97055555556</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="4">
+        <v>17234800</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45990.9684375</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="4">
+        <v>11487300</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45990.96790509259</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4">
+        <v>20898900</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45990.9671875</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4">
+        <v>18639500</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45990.96678240741</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4">
+        <v>14645400</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45990.96630787037</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="4">
+        <v>7927700</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45990.96528935185</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4">
+        <v>17388800</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45989.61879629629</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4">
+        <v>15453900</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45989.61799768519</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4">
+        <v>14331900</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45989.61736111111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4">
+        <v>24087800</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45989.61642361111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="4">
+        <v>10516000</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45989.61560185185</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="4">
+        <v>12317800</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="3">
+        <v>45950.41581018519</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4">
+        <v>10945000</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45988.91887731481</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4">
+        <v>19412800</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="3">
+        <v>45988.9177199074</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4">
+        <v>8146600</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="3">
+        <v>45988.91629629629</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4">
+        <v>9491900</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45988.89145833333</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4">
+        <v>8789000</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="3">
+        <v>45988.88697916667</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4">
+        <v>4950000</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="3">
+        <v>45987.61392361111</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4">
+        <v>30411700</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45987.5919212963</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="4">
+        <v>16252500</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45987.58400462963</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="4">
+        <v>8111400</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45987.5780787037</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="4">
+        <v>9553500</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45987.57618055555</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="4">
+        <v>9688800</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45987.5737962963</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4">
+        <v>18313900</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45987.57344907407</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4">
+        <v>29425000</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45987.57223379629</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="4">
+        <v>43554500</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45987.57010416667</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="4">
+        <v>44770000</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45987.57008101852</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="4">
+        <v>5113900</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45985.8388425926</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4">
+        <v>5896000</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="3">
+        <v>45985.4409375</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4">
+        <v>19058900</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45950.41818287037</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="4">
+        <v>4257000</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="3">
+        <v>45985.44508101852</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="4">
+        <v>14674000</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="3">
+        <v>45985.43857638889</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="4">
+        <v>13794000</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="3">
+        <v>45985.43528935185</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4">
+        <v>9491900</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" s="3">
+        <v>45964.39103009259</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4">
+        <v>6600000</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="3">
+        <v>45950.45652777778</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4">
+        <v>5280000</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" s="3">
+        <v>45950.41861111111</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="4">
+        <v>3080000</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="3">
+        <v>45950.41306712963</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="4">
+        <v>10558900</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" s="3">
+        <v>45950.41209490741</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="4">
+        <v>5555000</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="3">
+        <v>45950.41158564815</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="4">
+        <v>4628800</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="3">
+        <v>45950.40817129629</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="4">
+        <v>7093900</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="3">
+        <v>45949.74761574074</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="4">
+        <v>7920000</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="3">
+        <v>45949.74717592593</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="4">
+        <v>2638900</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" s="3">
+        <v>45949.74674768518</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="4">
+        <v>2189000</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="3">
+        <v>45948.9146412037</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="4">
+        <v>7315000</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="3">
+        <v>45948.91013888889</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="4">
         <v>4563900</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132" s="3">
+        <v>45946.4075</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="4">
+        <v>2768700</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" s="3">
+        <v>45945.4233912037</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="4">
+        <v>6600000</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="3">
+        <v>45945.40503472222</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="4">
+        <v>8193900</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="3">
+        <v>45945.40158564815</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="4">
+        <v>5197800</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="3">
+        <v>45945.39951388889</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="4">
+        <v>8743900</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="3">
+        <v>45929.4559375</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="4">
+        <v>1815000</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="3">
+        <v>45929.45165509259</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="4">
+        <v>4554000</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="3">
+        <v>45942.61055555556</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="4">
+        <v>2909500</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="3">
+        <v>45936.61741898148</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="4">
+        <v>4499000</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" s="3">
+        <v>45936.44555555555</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="4">
+        <v>15090900</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>10</v>
       </c>
     </row>
